--- a/demo/analysis/segments/segment_analysis_report.xlsx
+++ b/demo/analysis/segments/segment_analysis_report.xlsx
@@ -1,136 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/dev/user-research-helper/demo/analysis/segments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B54A86-3850-9F4A-AB27-AE1336071353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Segment Analysis Results" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Segment Analysis Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Segment Name</t>
-  </si>
-  <si>
-    <t>How many cups of coffee do you drink per day?</t>
-  </si>
-  <si>
-    <t>Do you prefer making your coffee at home or buying it outside? Why?</t>
-  </si>
-  <si>
-    <t>What are the most important factors for you when choosing coffee (e.g., taste, price, origin, etc.)?</t>
-  </si>
-  <si>
-    <t>Do you think drinking coffee impacts your energy or productivity? If so, how?</t>
-  </si>
-  <si>
-    <t>Do you have any special anecdote or memory related to your coffee consumption?</t>
-  </si>
-  <si>
-    <t>[male]</t>
-  </si>
-  <si>
-    <t>The male segment typically consumes two to three cups of coffee daily. A common pattern is having one cup in the morning and an additional cup either during a morning break or after lunch, especially if feeling tired. Notably, one individual occasionally drinks a third cup in the afternoon, highlighting a tendency to adjust consumption based on energy levels.</t>
-  </si>
-  <si>
-    <t>The common theme among the male segment is a preference for making coffee at home due to practical reasons such as cost-saving and routine enjoyment. However, convenience plays a significant role in the decision-making process, as some prefer buying coffee outside when it suits their schedule, especially when they are on the go. A notable unique perspective is the combination approach of making the first cup at home and buying additional coffee outside for convenience. Key insights include the importance of convenience and routine in coffee consumption habits.</t>
-  </si>
-  <si>
-    <t>In the male segment, the most common factors influencing coffee choice are taste, price, and convenience. Taste is frequently mentioned, with a preference for good quality and specific origins, such as local roasters. Price is a significant consideration, especially for those on a budget, though some are willing to pay more for superior taste. Convenience also plays a role, with a preference for quick and affordable options. A notable unique perspective is the emphasis on avoiding coffee that is too bitter or watery.</t>
-  </si>
-  <si>
-    <t>The common theme among the male interviewees is that drinking coffee positively impacts their energy and productivity. All respondents agree that coffee helps them stay alert and focused, whether for physically demanding work, long shifts, or academic activities. A notable pattern is the reliance on coffee to combat midday energy drops or morning grogginess. A unique perspective is the caution against consuming too much coffee to avoid jitteriness. Key insights include the role of coffee in enhancing alertness and focus, particularly in demanding or extended work situations.</t>
-  </si>
-  <si>
-    <t>The responses from the male segment reveal a common theme of coffee being associated with significant personal memories and experiences. A recurring pattern is the emotional connection to coffee, whether it's through family traditions, such as a grandfather making coffee, or social events like a coffee tasting that led to a discovery of new preferences. Additionally, coffee is linked to academic experiences, as illustrated by the stressful yet memorable all-nighter during finals. Notably, each anecdote highlights a unique aspect of coffee's role in personal and social contexts, from familial bonds to academic achievements. Key insights include the emotional and experiential significance of coffee in users' lives, influencing both personal preferences and memorable life events.</t>
-  </si>
-  <si>
-    <t>[rural]</t>
-  </si>
-  <si>
-    <t>The common theme among the rural segment is that users typically consume one to two cups of coffee per day. A pattern observed is that coffee is usually consumed in the morning, with some users opting for an additional cup in the afternoon, particularly if they are feeling tired or have company. There are no notable unique perspectives as both responses align closely in their coffee consumption habits. The key insight is that coffee consumption in this segment is moderate and often influenced by social or energy-related factors.</t>
-  </si>
-  <si>
-    <t>The common theme among users in the rural segment is a preference for making coffee at home. This is primarily due to the impracticality of buying coffee outside, as they live far from the city. Additionally, users enjoy the routine or ritual of brewing coffee in their own kitchen. A notable perspective is that some users only purchase coffee outside when visiting family in the city, indicating that external purchases are more of an exception than a routine.</t>
-  </si>
-  <si>
-    <t>In the rural segment, the most common factors influencing coffee choice are taste and price. Taste is emphasized, with a preference for a mild flavor. Price is a concern, especially for those on a fixed income, though some are willing to pay more for high-quality coffee. Origin is also considered important by some, with a preference for locally sourced beans.</t>
-  </si>
-  <si>
-    <t>Common themes among the rural segment indicate that coffee is primarily used as a morning beverage to help wake up and provide an energy boost, particularly useful for physically demanding tasks like farming. There is a tendency to enjoy coffee as a warm drink to start the day rather than relying heavily on it for energy. A notable perspective is the conscious effort to moderate coffee intake to avoid feeling jittery. Key insights suggest that while coffee is appreciated for its energizing effects, users are mindful of its consumption to maintain balance.</t>
-  </si>
-  <si>
-    <t>The responses from the rural segment reveal a common theme of cherished memories associated with coffee consumption, often tied to familial and daily routines. Both interviewees highlight the sensory experience of coffee, such as its aroma and the setting in which it is consumed, as integral to their fond memories. A notable unique perspective is the specific mention of a grandfather's use of a percolator, which underscores the generational and traditional aspects of coffee preparation and consumption in rural settings. Key insights include the emotional connection and nostalgia that coffee evokes, often linked to family and simple pleasures in life.</t>
-  </si>
-  <si>
-    <t>[urban]</t>
-  </si>
-  <si>
-    <t>The urban segment shows a common pattern of consuming two to three cups of coffee per day. A typical routine includes having coffee at home before leaving for work, during the morning break, and sometimes after lunch or mid-afternoon. The tendency to drink coffee seems to be associated with specific times of the day, particularly in the morning and early afternoon. Notably, one interviewee mentioned drinking coffee specifically if feeling tired after lunch, indicating a functional use of coffee for energy. Overall, the key insight is that coffee consumption in this segment is habitual and often aligned with daily routines and energy needs.</t>
-  </si>
-  <si>
-    <t>Among urban users, there is a common pattern of starting the day with a homemade cup of coffee, primarily for cost-saving reasons. However, convenience plays a significant role, as many opt to purchase coffee outside later in the day, often due to busy schedules or as a treat. A notable perspective is the integration of coffee buying with daily routines, such as grabbing a coffee on the way to work or during lunch breaks.</t>
-  </si>
-  <si>
-    <t>In the urban segment, the most common factors influencing coffee choice are taste and convenience. Price is also frequently mentioned, especially among those with budget constraints, such as students. However, there is a notable emphasis on taste, with a preference for coffee that is not too bitter or watery. A unique perspective is the willingness to support local roasters, highlighting a preference for quality over price when the coffee is particularly good.</t>
-  </si>
-  <si>
-    <t>The responses from the urban segment consistently indicate that drinking coffee significantly impacts energy and productivity. Common themes include coffee's role in maintaining alertness during long shifts or meetings, and its necessity for staying focused, particularly in demanding situations like exams or executive duties. The ritualistic aspect of coffee consumption is also noted. A unique perspective is the emphasis on coffee as both a ritual and a necessity for an executive with a hectic schedule. Overall, the key insight is that coffee is perceived as essential for sustaining energy and enhancing productivity in various professional and academic contexts.</t>
-  </si>
-  <si>
-    <t>The responses from the urban segment reveal a common theme of coffee being linked to significant personal and professional experiences. Two respondents associate coffee with memorable events: one with a coffee tasting event that refined their taste preferences, and another with a pivotal business meeting that led to a major client acquisition. A tendency towards coffee consumption during high-pressure situations is noted, as highlighted by a respondent who relied on coffee to stay awake during finals, resulting in academic success. Unique perspectives include the discovery of a preference for stronger coffee and the transformative potential of casual coffee meetings in professional settings. Key insights suggest that coffee plays a role in both personal enjoyment and professional networking, and it is often associated with positive outcomes in challenging situations.</t>
-  </si>
-  <si>
-    <t>[female]</t>
-  </si>
-  <si>
-    <t>The common theme among the female segment is the consumption of one to three cups of coffee per day. A tendency is to have coffee during specific times: one cup with breakfast or right after waking up, and potentially additional cups in the mid-morning and mid-afternoon. A notable perspective is the social aspect of coffee consumption, where one interviewee mentioned having an afternoon cup if they have company. Key insights include a structured pattern of coffee consumption tied to daily routines and social interactions.</t>
-  </si>
-  <si>
-    <t>The common theme among the female respondents is a preference for making coffee at home, particularly as part of their morning routine, due to the enjoyment of the brewing process. However, there is also a tendency to purchase coffee outside, such as a latte, when it is convenient or feels like a special treat, especially during commutes or lunch breaks. A notable unique perspective is the enjoyment of the ritual of brewing coffee at home, which is mentioned explicitly by one respondent. Key insights include the balance between the comfort and ritual of home-brewed coffee and the convenience and indulgence of buying coffee outside.</t>
-  </si>
-  <si>
-    <t>The common themes among the female segment when choosing coffee are the importance of taste and price. One interviewee emphasizes a mild taste and affordability due to being on a fixed income, while another values taste and quality, with a preference for supporting local roasters and less concern for price if the coffee is good. A notable unique perspective is the preference for local roasters, highlighting a tendency to support community businesses. Key insights include the prioritization of taste as a critical factor and the varying importance of price based on individual financial situations.</t>
-  </si>
-  <si>
-    <t>The responses indicate that coffee is perceived to have a positive impact on energy and productivity among the female segment. A common theme is the use of coffee as a morning routine to help wake up and start the day. One interviewee views coffee as an essential part of their daily routine, particularly for maintaining focus and sharpness during a busy schedule. This highlights a tendency to associate coffee with both a ritualistic and functional role in enhancing productivity. Notably, the unique perspective is the emphasis on coffee being a necessity for managing a hectic lifestyle, suggesting its critical role in professional settings.</t>
-  </si>
-  <si>
-    <t>The responses from the female segment reveal a common theme of coffee being intertwined with significant personal and professional moments. One user associates coffee with a cherished daily ritual shared with a loved one, highlighting the beverage's role in creating intimate and memorable experiences. Another user recalls a pivotal career moment where a casual coffee meeting led to a major business opportunity, illustrating coffee's potential to facilitate important professional connections. These anecdotes underscore coffee's dual role as both a comforting personal ritual and a catalyst for professional growth.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,25 +53,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -452,117 +420,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="70" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col width="70" customWidth="1" min="1" max="1"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="3" max="3"/>
+    <col width="70" customWidth="1" min="4" max="4"/>
+    <col width="70" customWidth="1" min="5" max="5"/>
+    <col width="70" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Segment Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>How many cups of coffee do you drink per day?</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Do you prefer making your coffee at home or buying it outside? Why?</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>What are the most important factors for you when choosing coffee (e.g., taste, price, origin, etc.)?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Do you think drinking coffee impacts your energy or productivity? If so, how?</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Do you have any special anecdote or memory related to your coffee consumption?</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[male]</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee usually drinks two cups of coffee per day.</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee prefers buying coffee outside most of the time because they are always on the go with early classes, making it easier to grab one on campus or at a nearby cafe.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>The most important factors for the interviewee when choosing coffee are taste and convenience. Price is also important due to their student budget, but they prioritize taste, avoiding coffee that is too bitter or watery.</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee believes that drinking coffee definitely impacts their energy and productivity. If they skip their morning coffee, they feel groggy in class. Coffee helps them focus and stay alert, especially when cramming for exams.</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee shared a memorable and stressful anecdote about pulling an all-nighter during finals, where they drank four cups of coffee in a row. Although they didn't sleep at all, they managed to ace the test the next morning.</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[rural]</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee drinks just one or two cups of coffee a day, usually having one cup with breakfast and sometimes one in the afternoon if they have company.</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee prefers making coffee at home because they enjoy the ritual of brewing a pot in their kitchen. They only buy coffee outside when visiting family in the city.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>The most important factors for the interviewee when choosing coffee are a mild taste and price, as they are on a fixed income. They don't need anything fancy, just something that tastes good.</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee thinks coffee perks them up in the morning but they don't rely on it too much. It's more about enjoying a warm drink to start the day.</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>The interviewee has a fond memory of sitting on the porch every morning with their husband, sipping coffee and watching the sun rise. It's a simple pleasure that brings back fond memories.</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="160" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[urban]</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed usually drinks three cups of coffee per day: one right after waking up, one mid-morning, and one mid-afternoon.</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed prefers making their first cup of coffee at home as part of their morning routine but often buys a latte on the way to the office or during lunch because it's convenient and feels like a treat.</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>The most important factors when choosing coffee are taste and quality. The person also likes to support local roasters when possible, and price is less of a concern as long as the coffee is good.</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed believes that drinking coffee absolutely impacts their energy and productivity. As an executive with a hectic schedule, coffee keeps them sharp, helps them stay focused during long meetings, and is both a ritual and a necessity.</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed recalls an early career memory where a casual coffee meeting led to landing a major client deal, turning a simple invitation to grab a coffee into a pivotal business relationship.</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[female]</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed usually drinks three cups of coffee per day: one right after waking up, one mid-morning, and one mid-afternoon.</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed prefers making their first cup of coffee at home as part of their morning routine but often buys a latte on the way to the office or during lunch because it's convenient and feels like a treat.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>The most important factors when choosing coffee are taste and quality. The person also likes to support local roasters when possible, and price is less of a concern as long as the coffee is good.</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed believes that drinking coffee absolutely impacts their energy and productivity. As an executive with a hectic schedule, coffee keeps them sharp, helps them stay focused during long meetings, and is both a ritual and a necessity.</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>The person interviewed recalls an early career memory where a casual coffee meeting led to landing a major client deal, turning a simple invitation to grab a coffee into a pivotal business relationship.</t>
+        </is>
       </c>
     </row>
   </sheetData>
